--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-10T13:33:39+05:45</t>
+    <t>2025-08-12T23:24:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T23:24:39+05:45</t>
+    <t>2025-08-13T23:06:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T23:06:39+05:45</t>
+    <t>2025-08-14T11:08:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.hmis.gov.np/ValueSet/service-area-address</t>
+    <t>https://fhir.hmis.gov.np/ValueSet/service-area-address</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T11:08:36+05:45</t>
+    <t>2025-08-14T14:11:38+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T14:11:38+05:45</t>
+    <t>2025-08-14T18:06:03+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T18:06:03+05:45</t>
+    <t>2025-08-15T10:07:00+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-15T10:07:00+05:45</t>
+    <t>2025-08-19T07:52:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T07:52:08+05:45</t>
+    <t>2025-08-20T08:30:34+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,118 +105,16 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>255604002</t>
-  </si>
-  <si>
-    <t>Within organization's area</t>
-  </si>
-  <si>
-    <t>255605001</t>
-  </si>
-  <si>
-    <t>Outside organization's area</t>
-  </si>
-  <si>
-    <t>225294001</t>
-  </si>
-  <si>
-    <t>Health care facility (environment)</t>
-  </si>
-  <si>
-    <t>44806009</t>
-  </si>
-  <si>
-    <t>Community health volunteer (वितरण स्थान)</t>
-  </si>
-  <si>
-    <t>308335008</t>
-  </si>
-  <si>
-    <t>School (setting)</t>
-  </si>
-  <si>
-    <t>394707004</t>
-  </si>
-  <si>
-    <t>Primary health care service</t>
-  </si>
-  <si>
-    <t>308335005</t>
-  </si>
-  <si>
-    <t>Outpatient clinic (setting)</t>
-  </si>
-  <si>
-    <t>440230006</t>
-  </si>
-  <si>
-    <t>Self referral / Self admission</t>
-  </si>
-  <si>
-    <t>7080001</t>
-  </si>
-  <si>
-    <t>Special care unit</t>
-  </si>
-  <si>
-    <t>390620009</t>
-  </si>
-  <si>
-    <t>Community health clinic</t>
-  </si>
-  <si>
-    <t>408729009</t>
-  </si>
-  <si>
-    <t>Nutritional rehabilitation center</t>
-  </si>
-  <si>
-    <t>265795009</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>309343006</t>
-  </si>
-  <si>
-    <t>Health care provider</t>
-  </si>
-  <si>
-    <t>726919000</t>
-  </si>
-  <si>
-    <t>Family member (person)</t>
-  </si>
-  <si>
-    <t>394814009</t>
-  </si>
-  <si>
-    <t>Pharmacy</t>
-  </si>
-  <si>
-    <t>386661006</t>
-  </si>
-  <si>
-    <t>Telephone service</t>
-  </si>
-  <si>
-    <t>225319003</t>
-  </si>
-  <si>
-    <t>Community (environment)</t>
-  </si>
-  <si>
-    <t>308490002</t>
-  </si>
-  <si>
-    <t>Referral to service</t>
-  </si>
-  <si>
-    <t>308489006</t>
-  </si>
-  <si>
-    <t>Referral from service</t>
+    <t>257622000</t>
+  </si>
+  <si>
+    <t>Healthcare facility (environment)</t>
+  </si>
+  <si>
+    <t>257698009</t>
+  </si>
+  <si>
+    <t>School (environment)</t>
   </si>
   <si>
     <t/>
@@ -500,7 +398,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -539,151 +437,15 @@
         <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T08:30:34+05:45</t>
+    <t>2025-08-29T13:54:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T13:54:08+05:45</t>
+    <t>2025-08-29T16:43:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T16:43:44+05:45</t>
+    <t>2025-08-31T08:04:43+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-31T08:04:43+05:45</t>
+    <t>2025-09-04T17:51:26+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T17:51:26+05:45</t>
+    <t>2025-09-04T23:57:58+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T23:57:58+05:45</t>
+    <t>2025-09-05T08:09:57+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T08:09:57+05:45</t>
+    <t>2025-09-07T15:46:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-service-area-address.xlsx
+++ b/output/ValueSet-service-area-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T15:46:36+05:45</t>
+    <t>2025-09-08T06:44:10+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
